--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C5143-4A41-42BD-ADAE-7A2AD49DBB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2ACA5C-458F-4374-9998-B626F5E6E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
     <sheet name="RICH_CARDS_CONFIG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -212,6 +211,27 @@
   </si>
   <si>
     <t>I am closing our current conversation as I have not received any input from you. We can start over when you need.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_WELCOME_MSG</t>
+  </si>
+  <si>
+    <t>BUTTONS</t>
+  </si>
+  <si>
+    <t>ESA_PHA_WISMO</t>
+  </si>
+  <si>
+    <t>Where is my order?</t>
+  </si>
+  <si>
+    <t>ESA_PHA_PAYMENT_BAL</t>
+  </si>
+  <si>
+    <t>Payment/Outstanding Balance</t>
+  </si>
+  <si>
+    <t>Hello, I’m Ask Iris, Express Scripts digital assistant. I'm in beta mode and still in learning phase. Here’s how I can help you right now:</t>
   </si>
 </sst>
 </file>
@@ -614,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,6 +850,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -837,10 +868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3A7FAE-3539-4F42-9974-BD06304157E9}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,6 +978,40 @@
         <v>49</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\Kore-AI-Pharmacy-Bot\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vearukalaimuthu\Pharmacy_chatbot\chatbot-app\bot-fulfillment-nodejs-main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2ACA5C-458F-4374-9998-B626F5E6E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CD38AE-D76B-4526-BE9E-2254FC70C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -54,12 +52,6 @@
     <t>MEDIA_TYPE</t>
   </si>
   <si>
-    <t>ESI_PHA_ORD_INFO_ASK_ORD_TITLE</t>
-  </si>
-  <si>
-    <t>Hello! Welcome to the ESI pharmacy chatbot. I'm in beta mode and still in learning phase. How may I assist you?</t>
-  </si>
-  <si>
     <t>TEXT</t>
   </si>
   <si>
@@ -213,32 +205,26 @@
     <t>I am closing our current conversation as I have not received any input from you. We can start over when you need.</t>
   </si>
   <si>
-    <t>ESI_PHA_WELCOME_MSG</t>
-  </si>
-  <si>
-    <t>BUTTONS</t>
-  </si>
-  <si>
-    <t>ESA_PHA_WISMO</t>
-  </si>
-  <si>
-    <t>Where is my order?</t>
-  </si>
-  <si>
-    <t>ESA_PHA_PAYMENT_BAL</t>
-  </si>
-  <si>
-    <t>Payment/Outstanding Balance</t>
-  </si>
-  <si>
-    <t>Hello, I’m Ask Iris, Express Scripts digital assistant. I'm in beta mode and still in learning phase. Here’s how I can help you right now:</t>
+    <t>ESI_PHA_ORD_INFO_WELCOME_MSG</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +245,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -300,6 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,22 +627,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29329887-49B3-45E3-9F81-89EC8C728205}">
-  <dimension ref="A1:E19"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="68.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.1796875" customWidth="1"/>
-    <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -666,224 +662,225 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="56">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28">
+      <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42">
+      <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="70">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000Data Class: &amp;B&amp;K00853EPublic
+&amp;B&amp;"Arial,Regular"&amp;12&amp;K000000 </oddFooter>
+    <evenFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000Data Class: &amp;B&amp;K00853EPublic
+&amp;B&amp;"Arial,Regular"&amp;12&amp;K000000 </evenFooter>
+    <firstFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000Data Class: &amp;B&amp;K00853EPublic
+&amp;B&amp;"Arial,Regular"&amp;12&amp;K000000 </firstFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3A7FAE-3539-4F42-9974-BD06304157E9}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
-    <col min="2" max="3" width="31.453125" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="3" width="31.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,129 +888,155 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="308">
+      <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="319" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000Data Class: &amp;B&amp;K00853EPublic
+&amp;B&amp;"Arial,Regular"&amp;12&amp;K000000 </oddFooter>
+    <evenFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000Data Class: &amp;B&amp;K00853EPublic
+&amp;B&amp;"Arial,Regular"&amp;12&amp;K000000 </evenFooter>
+    <firstFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000Data Class: &amp;B&amp;K00853EPublic
+&amp;B&amp;"Arial,Regular"&amp;12&amp;K000000 </firstFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="06dbc50a-7c40-497c-8ead-392c4a2b388e" origin="userSelected">
+  <element uid="3a0f620a-74f7-4504-a030-448d9ea0e08a" value=""/>
+  <element uid="4ccf64bc-f240-4d04-9210-66ba0df04095" value=""/>
+  <element uid="id_classification_nonbusiness" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302E4836-35E6-4351-81BD-224923940E45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vearukalaimuthu\Pharmacy_chatbot\chatbot-app\bot-fulfillment-nodejs-main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CD38AE-D76B-4526-BE9E-2254FC70C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8629D90F-BE4B-489F-90D6-925BD676D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -218,13 +218,19 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_WELCOME_MSG_BUTTON</t>
+  </si>
+  <si>
+    <t>BUTTON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,20 +638,20 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="68.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.1640625" customWidth="1"/>
-    <col min="3" max="3" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -662,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -673,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -684,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -695,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -706,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -717,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -728,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -739,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -750,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -761,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -772,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -783,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -791,7 +797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="56">
+    <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -802,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -813,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -824,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="42">
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -835,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="70">
+    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -867,20 +873,20 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
-    <col min="2" max="3" width="31.4140625" customWidth="1"/>
-    <col min="4" max="4" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="2" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,12 +906,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -917,12 +923,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -934,7 +940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -946,7 +952,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -963,7 +969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -980,7 +986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="308">
+    <row r="8" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8629D90F-BE4B-489F-90D6-925BD676D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC87D9E0-6976-4AA5-ABA5-846A66FE51A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Hello</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_INFO_WELCOME_MSG_BUTTON</t>
   </si>
   <si>
     <t>BUTTON</t>
@@ -638,7 +635,7 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -873,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -906,12 +903,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -923,12 +920,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC87D9E0-6976-4AA5-ABA5-846A66FE51A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5563AB-BD8F-48F2-BD67-29452685D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Hello</t>
-  </si>
-  <si>
-    <t>BUTTON</t>
   </si>
 </sst>
 </file>
@@ -635,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +905,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -925,7 +922,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5563AB-BD8F-48F2-BD67-29452685D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC2090E-5B45-485A-8F3D-8D6E096640E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <t>TEST2</t>
   </si>
   <si>
-    <t>Hello</t>
+    <t>Hello, I’m Ask Iris, Express Scripts digital assistant. I'm in beta mode and still in learning phase. Here’s how I can help you right now:</t>
   </si>
 </sst>
 </file>
@@ -632,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,7 +867,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC2090E-5B45-485A-8F3D-8D6E096640E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB6A461-31F3-4AAE-80C5-6373C21075AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>RESPONSE_ID</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Hello, I’m Ask Iris, Express Scripts digital assistant. I'm in beta mode and still in learning phase. Here’s how I can help you right now:</t>
+  </si>
+  <si>
+    <t>BUTTONS</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -867,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,7 +908,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -922,7 +925,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB6A461-31F3-4AAE-80C5-6373C21075AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E1599-3267-43D1-8576-06328FAA3982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROMPTS_CONFIG" sheetId="1" r:id="rId1"/>
@@ -181,21 +181,6 @@
     <t>{ "text": "Account details", "columns": [["S2","center"], ["Name"], ["Designation"], ["Salary","right"]], "table_design": "regular", "elements": [ { "Values": [ "1", "Peter", "Producer", "1,000" ] }, { "Values": [ "2", "Sam", "2,000" ] } ], "speech_hint": "Here is your account details" }</t>
   </si>
   <si>
-    <t>ESI_PHA_ORD_FAQ_WHEN_CHARGED_FOR_ORDER</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_FAQ_WHERE_TO_FIND_PRESCRIPTION_ID_CARD</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_FAQ_HOW_TO_CREATE_ONLINE_ACCOUNT</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_FAQ_HOW_GET_ALL_MY_MEDICATIONS_AT_HOME_DELIVERY</t>
-  </si>
-  <si>
-    <t>ESI_PHA_ORD_FAQ_WHAT_TEMPERATURE-SENSITIVE_MEDICATION</t>
-  </si>
-  <si>
     <t>Something Went Wrong. Please ensure you are logged in with the correct credentials.</t>
   </si>
   <si>
@@ -221,6 +206,21 @@
   </si>
   <si>
     <t>BUTTONS</t>
+  </si>
+  <si>
+    <t>ESI_PHA_FAQ_WHEN_CHARGED_FOR_ORDER</t>
+  </si>
+  <si>
+    <t>ESI_PHA_FAQ_WHERE_TO_FIND_PRESCRIPTION_ID_CARD</t>
+  </si>
+  <si>
+    <t>ESI_PHA_FAQ_HOW_TO_CREATE_ONLINE_ACCOUNT</t>
+  </si>
+  <si>
+    <t>ESI_PHA_FAQ_HOW_GET_ALL_MY_MEDICATIONS_AT_HOME_DELIVERY</t>
+  </si>
+  <si>
+    <t>ESI_PHA_FAQ_WHAT_TEMPERATURE-SENSITIVE_MEDICATION</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -667,10 +667,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -780,7 +780,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -788,15 +788,15 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -870,7 +870,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -905,36 +905,36 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5E1599-3267-43D1-8576-06328FAA3982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E42EA55-CEAF-4D1C-A6BC-DF59F5231DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>ESI_PHA_ORD_INFO_ORD_ID_RESP</t>
   </si>
   <si>
-    <t>Thanks for your confirmation. Here is your order status, Status: ${order_status}. Is there anything else I can assist with you?</t>
-  </si>
-  <si>
     <t>ESI_PHA_ORD_INFO_ORD_FALLBACK</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>ESI_PHA_FAQ_WHAT_TEMPERATURE-SENSITIVE_MEDICATION</t>
+  </si>
+  <si>
+    <t>Your order for ${trxNumber} (${shippingProvider}), is ready for delivery ${shippingDate}.</t>
   </si>
 </sst>
 </file>
@@ -635,8 +635,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,10 +667,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -703,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -788,18 +788,18 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -891,126 +891,126 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E42EA55-CEAF-4D1C-A6BC-DF59F5231DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D3CAC6-C280-4F0B-A693-B57FE711658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -70,12 +70,6 @@
     <t>ESI_PHA_ORD_INFO_ORD_ID_RESP</t>
   </si>
   <si>
-    <t>ESI_PHA_ORD_INFO_ORD_FALLBACK</t>
-  </si>
-  <si>
-    <t>We are unable to fetch the requested details at this point. Please try again after sometime.</t>
-  </si>
-  <si>
     <t>ESI_PHA_ORD_INFO_ASK_MEMBER_ID</t>
   </si>
   <si>
@@ -221,6 +215,12 @@
   </si>
   <si>
     <t>Your order for ${trxNumber} (${shippingProvider}), is ready for delivery ${shippingDate}.</t>
+  </si>
+  <si>
+    <t>We are unable to fetch the requested details at this point. Please try again after sometime.~Not sure I understood this correctly. Can you rephrase your question? ~ Sorry Please try again after sometime.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_EXECUTION_FAIL_FALLBACK_MSG</t>
   </si>
 </sst>
 </file>
@@ -667,10 +667,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -703,18 +703,18 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -777,10 +777,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -788,18 +788,18 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -891,126 +891,126 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D3CAC6-C280-4F0B-A693-B57FE711658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66A926B-57FF-4922-8A68-A06E5EB27AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,6 +296,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -709,11 +710,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">

--- a/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_EN_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66A926B-57FF-4922-8A68-A06E5EB27AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51031B4A-53D3-4077-8B90-F5F93A6F30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>ESI_PHA_ORD_INFO_INVALID_MSG</t>
   </si>
   <si>
-    <t>You’ve entered an invalid Id. Please Enter Correct ${dynamic_entity}</t>
-  </si>
-  <si>
     <t>ESI_PHA_ORD_INFO_MAX_NO_ATTEMPTS_MSG</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>ESI_PHA_EXECUTION_FAIL_FALLBACK_MSG</t>
+  </si>
+  <si>
+    <t>You’ve entered an invalid ${dynamic_entity} . Please Enter Correct ${dynamic_entity}</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,10 +668,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -759,7 +759,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -789,18 +789,18 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -892,126 +892,126 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
